--- a/ConfigInput/__tables__.xlsx
+++ b/ConfigInput/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69AB63-EB9E-4596-A223-229A2E048678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62272D85-7621-4C01-9188-2360C9D59C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="4335" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="4335" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>UnitConfig</t>
-  </si>
-  <si>
-    <t>ET/UnitConfig.xlsx</t>
   </si>
   <si>
     <t>c,s</t>
@@ -171,6 +168,22 @@
   </si>
   <si>
     <t>ET/AIConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerInfoConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET/UnitConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET/ServerInfoConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerInfoConfigCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -738,10 +751,27 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigInput/__tables__.xlsx
+++ b/ConfigInput/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62272D85-7621-4C01-9188-2360C9D59C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE55917-0841-49EA-ACE6-8A6DFFFA3AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="4335" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="2970" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ConfigInput/__tables__.xlsx
+++ b/ConfigInput/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE55917-0841-49EA-ACE6-8A6DFFFA3AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A82F9-68D6-4137-844C-9EC16732BEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2970" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="3390" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -184,6 +184,22 @@
   </si>
   <si>
     <t>ServerInfoConfigCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNumericConfigCatrgory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNumericConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET/PlayerNumericConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c,s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,6 +790,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
